--- a/Team-Data/2011-12/4-8-2011-12.xlsx
+++ b/Team-Data/2011-12/4-8-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -762,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>14</v>
@@ -771,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -783,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.571</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
         <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
         <v>15.5</v>
@@ -887,19 +954,19 @@
         <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T3" t="n">
         <v>38.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V3" t="n">
         <v>14.9</v>
@@ -914,22 +981,22 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA3" t="n">
         <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.5</v>
+        <v>91.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
         <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -938,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>22</v>
@@ -956,13 +1023,13 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -971,37 +1038,37 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-12.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1126,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
@@ -1144,10 +1211,10 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
@@ -1159,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -1212,64 +1279,64 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
         <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>0.754</v>
+        <v>0.768</v>
       </c>
       <c r="H5" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I5" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q5" t="n">
         <v>0.725</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="T5" t="n">
-        <v>46.3</v>
+        <v>46</v>
       </c>
       <c r="U5" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X5" t="n">
         <v>5.9</v>
@@ -1278,19 +1345,19 @@
         <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB5" t="n">
         <v>96.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,13 +1372,13 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1326,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
         <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J6" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
         <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
         <v>18</v>
@@ -1433,19 +1500,19 @@
         <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.709</v>
+        <v>0.708</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T6" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
         <v>15.3</v>
@@ -1457,22 +1524,22 @@
         <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>27</v>
@@ -1484,25 +1551,25 @@
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN6" t="n">
         <v>14</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1520,10 +1587,10 @@
         <v>24</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV6" t="n">
         <v>23</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>13</v>
@@ -1666,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1699,7 +1766,7 @@
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
         <v>14</v>
@@ -1708,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1723,13 +1790,13 @@
         <v>7</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
         <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
@@ -1848,13 +1915,13 @@
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
@@ -1896,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -1940,46 +2007,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.375</v>
+        <v>0.382</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J9" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.346</v>
       </c>
       <c r="O9" t="n">
         <v>16.6</v>
       </c>
       <c r="P9" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
         <v>11.9</v>
@@ -1991,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="U9" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2006,19 +2073,19 @@
         <v>5.4</v>
       </c>
       <c r="Z9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA9" t="n">
         <v>19.7</v>
       </c>
-      <c r="AA9" t="n">
-        <v>19.8</v>
-      </c>
       <c r="AB9" t="n">
-        <v>90.09999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.4</v>
+        <v>-5.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2039,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,19 +2115,19 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2069,22 +2136,22 @@
         <v>27</v>
       </c>
       <c r="AU9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA9" t="n">
         <v>15</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2212,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>6</v>
@@ -2221,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.554</v>
+        <v>0.545</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
@@ -2331,34 +2398,34 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O11" t="n">
         <v>15.6</v>
       </c>
       <c r="P11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S11" t="n">
         <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U11" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
@@ -2373,19 +2440,19 @@
         <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2400,10 +2467,10 @@
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,13 +2479,13 @@
         <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2430,34 +2497,34 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2606,13 +2673,13 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
@@ -2764,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>23</v>
@@ -2797,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>1.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>23</v>
@@ -2970,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ14" t="n">
         <v>3</v>
@@ -3003,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>10</v>
@@ -3122,7 +3189,7 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
@@ -3155,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.727</v>
+        <v>0.722</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O16" t="n">
         <v>19.5</v>
@@ -3253,25 +3320,25 @@
         <v>25.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
         <v>31.4</v>
       </c>
       <c r="T16" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3280,19 +3347,19 @@
         <v>4.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3331,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3352,10 +3419,10 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>0.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
         <v>19</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3495,16 +3562,16 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3522,13 +3589,13 @@
         <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
@@ -3546,10 +3613,10 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3668,13 +3735,13 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3695,7 +3762,7 @@
         <v>6</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
         <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.362</v>
+        <v>0.351</v>
       </c>
       <c r="H19" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J19" t="n">
-        <v>80.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L19" t="n">
         <v>8</v>
@@ -3790,25 +3857,25 @@
         <v>23.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="T19" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U19" t="n">
         <v>20.1</v>
@@ -3817,7 +3884,7 @@
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
@@ -3826,34 +3893,34 @@
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG19" t="n">
         <v>25</v>
       </c>
-      <c r="AG19" t="n">
-        <v>24</v>
-      </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>22</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,10 +3944,10 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,19 +3956,19 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
         <v>21</v>
       </c>
       <c r="AW19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY19" t="n">
         <v>16</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>14</v>
       </c>
       <c r="AZ19" t="n">
         <v>10</v>
@@ -3910,10 +3977,10 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4050,7 +4117,7 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
@@ -4077,7 +4144,7 @@
         <v>26</v>
       </c>
       <c r="AW20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
         <v>20</v>
@@ -4086,10 +4153,10 @@
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -4124,49 +4191,49 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.518</v>
+        <v>0.509</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>81.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.319</v>
+        <v>0.321</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P21" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q21" t="n">
         <v>0.741</v>
       </c>
       <c r="R21" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S21" t="n">
         <v>30.8</v>
@@ -4178,7 +4245,7 @@
         <v>19.7</v>
       </c>
       <c r="V21" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W21" t="n">
         <v>9.5</v>
@@ -4187,7 +4254,7 @@
         <v>4.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z21" t="n">
         <v>21.3</v>
@@ -4199,31 +4266,31 @@
         <v>97.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>8</v>
@@ -4247,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4256,7 +4323,7 @@
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.732</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J22" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L22" t="n">
         <v>7.1</v>
@@ -4336,7 +4403,7 @@
         <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O22" t="n">
         <v>20.9</v>
@@ -4351,7 +4418,7 @@
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
         <v>43.3</v>
@@ -4369,22 +4436,22 @@
         <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4411,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
         <v>11</v>
@@ -4432,25 +4499,25 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>9</v>
@@ -4578,10 +4645,10 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4602,7 +4669,7 @@
         <v>25</v>
       </c>
       <c r="AP23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4614,7 +4681,7 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.518</v>
+        <v>0.527</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M24" t="n">
         <v>14.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="P24" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="R24" t="n">
         <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>5</v>
@@ -4742,19 +4809,19 @@
         <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4763,10 +4830,10 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -4930,28 +4997,28 @@
         <v>-0.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,13 +5027,13 @@
         <v>13</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4984,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5005,7 +5072,7 @@
         <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5184,7 +5251,7 @@
         <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J27" t="n">
-        <v>86.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.431</v>
@@ -5243,19 +5310,19 @@
         <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="O27" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.741</v>
+        <v>0.746</v>
       </c>
       <c r="R27" t="n">
         <v>13.7</v>
@@ -5264,13 +5331,13 @@
         <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U27" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>8.4</v>
@@ -5279,34 +5346,34 @@
         <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA27" t="n">
         <v>20.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.8</v>
+        <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG27" t="n">
         <v>27</v>
       </c>
-      <c r="AG27" t="n">
-        <v>26</v>
-      </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5321,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5330,7 +5397,7 @@
         <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>20</v>
@@ -5339,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
         <v>5</v>
@@ -5348,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>6</v>
@@ -5360,13 +5427,13 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.741</v>
+        <v>0.736</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
@@ -5428,61 +5495,61 @@
         <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.389</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.736</v>
+        <v>0.731</v>
       </c>
       <c r="R28" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S28" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T28" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V28" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
         <v>4.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
@@ -5509,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
@@ -5533,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J29" t="n">
         <v>78.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
@@ -5613,13 +5680,13 @@
         <v>0.335</v>
       </c>
       <c r="O29" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
@@ -5628,49 +5695,49 @@
         <v>31</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V29" t="n">
         <v>15.1</v>
       </c>
       <c r="W29" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.4</v>
+        <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>25</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5688,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
         <v>14</v>
@@ -5718,10 +5785,10 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.509</v>
+        <v>0.518</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="O30" t="n">
         <v>18.8</v>
@@ -5801,7 +5868,7 @@
         <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>13.1</v>
@@ -5816,7 +5883,7 @@
         <v>21.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W30" t="n">
         <v>8.300000000000001</v>
@@ -5825,31 +5892,31 @@
         <v>5.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5861,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5891,7 +5958,7 @@
         <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV30" t="n">
         <v>11</v>
@@ -5903,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5912,10 +5979,10 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,16 +6101,16 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,10 +6122,10 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6073,7 +6140,7 @@
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
         <v>25</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-8-2011-12</t>
+          <t>2012-04-08</t>
         </is>
       </c>
     </row>
